--- a/Data/kospi/table7_1.xlsx
+++ b/Data/kospi/table7_1.xlsx
@@ -64,7 +64,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>0.083***</t>
+    <t>0.08***</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
         <v>4511</v>
       </c>
       <c r="D2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E2">
         <v>886</v>
@@ -474,7 +474,7 @@
         <v>1218</v>
       </c>
       <c r="H2">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
@@ -489,7 +489,7 @@
         <v>0.14</v>
       </c>
       <c r="D3">
-        <v>0.134</v>
+        <v>0.135</v>
       </c>
       <c r="E3">
         <v>0.13</v>
@@ -516,16 +516,16 @@
         <v>0.11</v>
       </c>
       <c r="D4">
-        <v>0.102</v>
+        <v>0.105</v>
       </c>
       <c r="E4">
-        <v>-0.008999999999999999</v>
+        <v>-0.01</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.092</v>
+        <v>0.093</v>
       </c>
       <c r="H4">
         <v>0.185</v>
@@ -708,22 +708,22 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>2544</v>
+        <v>2542</v>
       </c>
       <c r="D11">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G11">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H11">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="I11" t="s">
         <v>15</v>
@@ -738,19 +738,19 @@
         <v>0.06</v>
       </c>
       <c r="D12">
-        <v>0.078</v>
+        <v>0.08</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.063</v>
+        <v>0.061</v>
       </c>
       <c r="G12">
-        <v>0.054</v>
+        <v>0.055</v>
       </c>
       <c r="H12">
-        <v>0.052</v>
+        <v>0.053</v>
       </c>
       <c r="I12" t="s">
         <v>15</v>
@@ -762,22 +762,22 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D13">
-        <v>0.032</v>
+        <v>0.034</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>-0.019</v>
+        <v>-0.021</v>
       </c>
       <c r="G13">
         <v>-0.039</v>
       </c>
       <c r="H13">
-        <v>0.056</v>
+        <v>0.058</v>
       </c>
       <c r="I13">
         <v>0.024</v>
